--- a/Partner_Portal/Partner_Portal/Partner_Portal.xlsx
+++ b/Partner_Portal/Partner_Portal/Partner_Portal.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\so.maggo\Downloads\new\Partner_Portal_Framework (1)\Partner_Portal_Framework\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tu.raghuvanshi\eclipse-workspace\Partner_Portal\Partner_Portal\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="91">
   <si>
     <t>ID_TXT</t>
   </si>
@@ -304,12 +304,6 @@
   </si>
   <si>
     <t>Verify that the error shown in application and expected error are same</t>
-  </si>
-  <si>
-    <t>TC_006</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -653,10 +647,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:L28"/>
+  <dimension ref="B1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -724,7 +718,7 @@
         <v>37</v>
       </c>
       <c r="K3" t="s">
-        <v>92</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
@@ -769,7 +763,7 @@
         <v>21</v>
       </c>
       <c r="K6" t="s">
-        <v>92</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
@@ -837,7 +831,7 @@
         <v>21</v>
       </c>
       <c r="K10" t="s">
-        <v>92</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
@@ -905,7 +899,7 @@
         <v>20</v>
       </c>
       <c r="K14" t="s">
-        <v>92</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
@@ -973,7 +967,7 @@
         <v>18</v>
       </c>
       <c r="K18" t="s">
-        <v>92</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
@@ -998,7 +992,7 @@
         <v>53</v>
       </c>
       <c r="K20" t="s">
-        <v>92</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
@@ -1034,74 +1028,6 @@
       </c>
       <c r="F24" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>91</v>
-      </c>
-      <c r="C25" t="s">
-        <v>21</v>
-      </c>
-      <c r="K25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D26" t="s">
-        <v>0</v>
-      </c>
-      <c r="E26" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" t="s">
-        <v>40</v>
-      </c>
-      <c r="H26" t="s">
-        <v>0</v>
-      </c>
-      <c r="I26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D27" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" t="s">
-        <v>33</v>
-      </c>
-      <c r="F27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" t="s">
-        <v>40</v>
-      </c>
-      <c r="H27" t="s">
-        <v>12</v>
-      </c>
-      <c r="I27" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="D28" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s">
-        <v>35</v>
-      </c>
-      <c r="H28" t="s">
-        <v>46</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
